--- a/调参.xlsx
+++ b/调参.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="cifar10" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>filter</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32,11 +32,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>now</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>VGG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>备注</t>
+    <t>200epoch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定网络结构，调节其他参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数调节固定， 数据增强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据增强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoogLeNet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_augment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -60,7 +116,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -79,6 +135,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -92,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -100,6 +162,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -404,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:D26"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -417,7 +480,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -447,7 +510,13 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
         <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
@@ -743,7 +812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>64</v>
       </c>
@@ -757,7 +826,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>64</v>
       </c>
@@ -768,7 +837,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>64</v>
       </c>
@@ -779,9 +848,253 @@
         <v>5</v>
       </c>
     </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>32</v>
+      </c>
+      <c r="B38">
+        <v>2048</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>70.8</v>
+      </c>
+      <c r="F38">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>32</v>
+      </c>
+      <c r="B39">
+        <v>2048</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>67</v>
+      </c>
+      <c r="F39">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>32</v>
+      </c>
+      <c r="B40">
+        <v>2048</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>65</v>
+      </c>
+      <c r="F40">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>32</v>
+      </c>
+      <c r="B43">
+        <v>2048</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>70.8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43">
+        <v>0.3</v>
+      </c>
+      <c r="G43">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>32</v>
+      </c>
+      <c r="B44">
+        <v>2048</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>70</v>
+      </c>
+      <c r="F44">
+        <v>0.3</v>
+      </c>
+      <c r="G44">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>32</v>
+      </c>
+      <c r="B45">
+        <v>2048</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>69</v>
+      </c>
+      <c r="F45">
+        <v>0.3</v>
+      </c>
+      <c r="G45">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>32</v>
+      </c>
+      <c r="B48">
+        <v>2048</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>79.7</v>
+      </c>
+      <c r="F48">
+        <v>0.3</v>
+      </c>
+      <c r="G48">
+        <v>32</v>
+      </c>
+      <c r="H48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>32</v>
+      </c>
+      <c r="B49">
+        <v>2048</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>82</v>
+      </c>
+      <c r="F49">
+        <v>0.3</v>
+      </c>
+      <c r="G49">
+        <v>32</v>
+      </c>
+      <c r="H49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+    </row>
+    <row r="65" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="E65" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" t="s">
+        <v>18</v>
+      </c>
+      <c r="H65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="E66">
+        <v>83</v>
+      </c>
+      <c r="F66">
+        <v>0.3</v>
+      </c>
+      <c r="G66">
+        <v>128</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="E67" t="s">
+        <v>6</v>
+      </c>
+      <c r="F67">
+        <v>0.3</v>
+      </c>
+      <c r="G67">
+        <v>32</v>
+      </c>
+      <c r="H67">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="A64:H64"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
